--- a/biology/Zoologie/Boiga_drapiezii/Boiga_drapiezii.xlsx
+++ b/biology/Zoologie/Boiga_drapiezii/Boiga_drapiezii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boiga drapiezii  est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boiga drapiezii  est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre  au Brunei, en Indonésie, en Malaisie, dans l'archipel de Sulu aux Philippines, à Singapour, en Thaïlande et au Viêt Nam[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre  au Brunei, en Indonésie, en Malaisie, dans l'archipel de Sulu aux Philippines, à Singapour, en Thaïlande et au Viêt Nam.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Boiga drapiezii et Boiga schultzei sont deux taxons morphologiquement très proches mais maintenus au rang d'espèce en attendant une meilleure définition de Boiga drapiezii. L'UICN les considère comme synonymes tout en privilégiant le taxon Boiga schultzei.
 </t>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Auguste Drapiez[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Auguste Drapiez.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boie, 1827 : Bemerkungen über Merrem's Versuch eines Systems der Amphibien, 1. Lieferung: Ophidier. Isis von Oken, Jena, vol. 20, p. 508-566 (texte intégral)</t>
         </is>
